--- a/filozofi.xlsx
+++ b/filozofi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1932" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="2388" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="284">
   <si>
     <t>Toma d'Aquino</t>
   </si>
@@ -824,6 +824,48 @@
   </si>
   <si>
     <t>"Nebunia dragostei este cea mai mare binecuvântare a cerului"</t>
+  </si>
+  <si>
+    <t>"Oamenii știu ce fac; adesea știu de ce fac ceea ce fac; dar ceea ce nu știu este ce efect are ceea ce fac"</t>
+  </si>
+  <si>
+    <t>"Nu simt că este necesar să știu exact ce sunt. Interesul principal în viață și muncă este să devii altcineva față de ceea ce erai la început"</t>
+  </si>
+  <si>
+    <t>"Unde există putere, există rezistență"</t>
+  </si>
+  <si>
+    <t>"De ce ar trebui lampa sau casa să fie un obiect de artă, dar nu și viața noastră?"</t>
+  </si>
+  <si>
+    <t>"Nu sunt un profet. Meseria mea este să fac ferestre acolo unde erau odată pereți"</t>
+  </si>
+  <si>
+    <t>"Cunoașterea nu este pentru a ști: cunoașterea este pentru a tăia"</t>
+  </si>
+  <si>
+    <t>"Poate că ținta în zilele noastre nu este să descoperim ce suntem, ci să refuzăm ceea ce suntem"</t>
+  </si>
+  <si>
+    <t>"Școlile îndeplinesc aceleași funcții sociale ca și închisorile și instituțiile de sănătate mintală - de a defini, clasifica, controla și reglementa oamenii"</t>
+  </si>
+  <si>
+    <t>"Nu mă întreba cine sunt și nu mă ruga să rămân la fel. Mai mult de o persoană, fără îndoială asemănătoare mie, scrie pentru a nu avea un chip"</t>
+  </si>
+  <si>
+    <t>"Iluminismul, este cel care a descoperit libertățile, a inventat și disciplinle"</t>
+  </si>
+  <si>
+    <t>"Ce dorință poate fi contrară naturii, având în vedere că a fost dăruită omului de către natură însăși?"</t>
+  </si>
+  <si>
+    <t>"Nu mă întreba cine sunt și nu mă ruga să rămân la fel"</t>
+  </si>
+  <si>
+    <t>"Nu credeți că trebuie să fii trist pentru a fi militant, chiar dacă ceea ce combați este abominabil"</t>
+  </si>
+  <si>
+    <t>"Moartea a părăsit vechiul ei cer tragic și a devenit nucleul liric al omului: adevărul său invizibil, secretul său vizibil"</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1702,6 +1744,48 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
+      <c r="C12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K12" t="s">
+        <v>278</v>
+      </c>
+      <c r="L12" t="s">
+        <v>279</v>
+      </c>
+      <c r="M12" t="s">
+        <v>280</v>
+      </c>
+      <c r="N12" t="s">
+        <v>281</v>
+      </c>
+      <c r="O12" t="s">
+        <v>282</v>
+      </c>
+      <c r="P12" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
